--- a/natmiOut/OldD0/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.5331222010528</v>
+        <v>59.68504933333333</v>
       </c>
       <c r="H2">
-        <v>36.5331222010528</v>
+        <v>179.055148</v>
       </c>
       <c r="I2">
-        <v>0.1388013369853164</v>
+        <v>0.207862575863973</v>
       </c>
       <c r="J2">
-        <v>0.1388013369853164</v>
+        <v>0.2078625758639731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.97796166161539</v>
+        <v>25.81052333333333</v>
       </c>
       <c r="N2">
-        <v>7.97796166161539</v>
+        <v>77.43156999999999</v>
       </c>
       <c r="O2">
-        <v>0.5617916228239216</v>
+        <v>0.804688548562198</v>
       </c>
       <c r="P2">
-        <v>0.5617916228239216</v>
+        <v>0.804688548562198</v>
       </c>
       <c r="Q2">
-        <v>291.4598482991092</v>
+        <v>1540.502358469151</v>
       </c>
       <c r="R2">
-        <v>291.4598482991092</v>
+        <v>13864.52122622236</v>
       </c>
       <c r="S2">
-        <v>0.07797742835511091</v>
+        <v>0.1672646344723802</v>
       </c>
       <c r="T2">
-        <v>0.07797742835511091</v>
+        <v>0.1672646344723802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.5331222010528</v>
+        <v>59.68504933333333</v>
       </c>
       <c r="H3">
-        <v>36.5331222010528</v>
+        <v>179.055148</v>
       </c>
       <c r="I3">
-        <v>0.1388013369853164</v>
+        <v>0.207862575863973</v>
       </c>
       <c r="J3">
-        <v>0.1388013369853164</v>
+        <v>0.2078625758639731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.174651041547993</v>
+        <v>0.1747726666666667</v>
       </c>
       <c r="N3">
-        <v>0.174651041547993</v>
+        <v>0.5243180000000001</v>
       </c>
       <c r="O3">
-        <v>0.01229856650367359</v>
+        <v>0.005448845870037694</v>
       </c>
       <c r="P3">
-        <v>0.01229856650367359</v>
+        <v>0.005448845870037694</v>
       </c>
       <c r="Q3">
-        <v>6.380547843413978</v>
+        <v>10.43131523211822</v>
       </c>
       <c r="R3">
-        <v>6.380547843413978</v>
+        <v>93.88183708906401</v>
       </c>
       <c r="S3">
-        <v>0.001707057473712723</v>
+        <v>0.001132611138031806</v>
       </c>
       <c r="T3">
-        <v>0.001707057473712723</v>
+        <v>0.001132611138031806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.5331222010528</v>
+        <v>59.68504933333333</v>
       </c>
       <c r="H4">
-        <v>36.5331222010528</v>
+        <v>179.055148</v>
       </c>
       <c r="I4">
-        <v>0.1388013369853164</v>
+        <v>0.207862575863973</v>
       </c>
       <c r="J4">
-        <v>0.1388013369853164</v>
+        <v>0.2078625758639731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.04831400612624</v>
+        <v>6.089875666666667</v>
       </c>
       <c r="N4">
-        <v>6.04831400612624</v>
+        <v>18.269627</v>
       </c>
       <c r="O4">
-        <v>0.4259098106724048</v>
+        <v>0.1898626055677645</v>
       </c>
       <c r="P4">
-        <v>0.4259098106724048</v>
+        <v>0.1898626055677645</v>
       </c>
       <c r="Q4">
-        <v>220.9637946961491</v>
+        <v>363.4745295988662</v>
       </c>
       <c r="R4">
-        <v>220.9637946961491</v>
+        <v>3271.270766389796</v>
       </c>
       <c r="S4">
-        <v>0.05911685115649277</v>
+        <v>0.03946533025356103</v>
       </c>
       <c r="T4">
-        <v>0.05911685115649277</v>
+        <v>0.03946533025356103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>186.013105671863</v>
+        <v>186.4134573333333</v>
       </c>
       <c r="H5">
-        <v>186.013105671863</v>
+        <v>559.240372</v>
       </c>
       <c r="I5">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="J5">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.97796166161539</v>
+        <v>25.81052333333333</v>
       </c>
       <c r="N5">
-        <v>7.97796166161539</v>
+        <v>77.43156999999999</v>
       </c>
       <c r="O5">
-        <v>0.5617916228239216</v>
+        <v>0.804688548562198</v>
       </c>
       <c r="P5">
-        <v>0.5617916228239216</v>
+        <v>0.804688548562198</v>
       </c>
       <c r="Q5">
-        <v>1484.005425608135</v>
+        <v>4811.428890149337</v>
       </c>
       <c r="R5">
-        <v>1484.005425608135</v>
+        <v>43302.86001134403</v>
       </c>
       <c r="S5">
-        <v>0.3970321381461718</v>
+        <v>0.5224152304449685</v>
       </c>
       <c r="T5">
-        <v>0.3970321381461718</v>
+        <v>0.5224152304449685</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>186.013105671863</v>
+        <v>186.4134573333333</v>
       </c>
       <c r="H6">
-        <v>186.013105671863</v>
+        <v>559.240372</v>
       </c>
       <c r="I6">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="J6">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.174651041547993</v>
+        <v>0.1747726666666667</v>
       </c>
       <c r="N6">
-        <v>0.174651041547993</v>
+        <v>0.5243180000000001</v>
       </c>
       <c r="O6">
-        <v>0.01229856650367359</v>
+        <v>0.005448845870037694</v>
       </c>
       <c r="P6">
-        <v>0.01229856650367359</v>
+        <v>0.005448845870037694</v>
       </c>
       <c r="Q6">
-        <v>32.48738264716776</v>
+        <v>32.57997704069956</v>
       </c>
       <c r="R6">
-        <v>32.48738264716776</v>
+        <v>293.219793366296</v>
       </c>
       <c r="S6">
-        <v>0.008691703394475208</v>
+        <v>0.003537468099851844</v>
       </c>
       <c r="T6">
-        <v>0.008691703394475208</v>
+        <v>0.003537468099851844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>186.013105671863</v>
+        <v>186.4134573333333</v>
       </c>
       <c r="H7">
-        <v>186.013105671863</v>
+        <v>559.240372</v>
       </c>
       <c r="I7">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="J7">
-        <v>0.7067249172396628</v>
+        <v>0.6492141976897894</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.04831400612624</v>
+        <v>6.089875666666667</v>
       </c>
       <c r="N7">
-        <v>6.04831400612624</v>
+        <v>18.269627</v>
       </c>
       <c r="O7">
-        <v>0.4259098106724048</v>
+        <v>0.1898626055677645</v>
       </c>
       <c r="P7">
-        <v>0.4259098106724048</v>
+        <v>0.1898626055677645</v>
       </c>
       <c r="Q7">
-        <v>1125.065672358169</v>
+        <v>1135.234777753471</v>
       </c>
       <c r="R7">
-        <v>1125.065672358169</v>
+        <v>10217.11299978124</v>
       </c>
       <c r="S7">
-        <v>0.3010010756990157</v>
+        <v>0.1232614991449691</v>
       </c>
       <c r="T7">
-        <v>0.3010010756990157</v>
+        <v>0.1232614991449691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.6581691057501</v>
+        <v>41.03855533333333</v>
       </c>
       <c r="H8">
-        <v>40.6581691057501</v>
+        <v>123.115666</v>
       </c>
       <c r="I8">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="J8">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.97796166161539</v>
+        <v>25.81052333333333</v>
       </c>
       <c r="N8">
-        <v>7.97796166161539</v>
+        <v>77.43156999999999</v>
       </c>
       <c r="O8">
-        <v>0.5617916228239216</v>
+        <v>0.804688548562198</v>
       </c>
       <c r="P8">
-        <v>0.5617916228239216</v>
+        <v>0.804688548562198</v>
       </c>
       <c r="Q8">
-        <v>324.3693143571496</v>
+        <v>1059.226589997291</v>
       </c>
       <c r="R8">
-        <v>324.3693143571496</v>
+        <v>9533.03930997562</v>
       </c>
       <c r="S8">
-        <v>0.08678205632263884</v>
+        <v>0.1150086836448492</v>
       </c>
       <c r="T8">
-        <v>0.08678205632263884</v>
+        <v>0.1150086836448492</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.6581691057501</v>
+        <v>41.03855533333333</v>
       </c>
       <c r="H9">
-        <v>40.6581691057501</v>
+        <v>123.115666</v>
       </c>
       <c r="I9">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="J9">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.174651041547993</v>
+        <v>0.1747726666666667</v>
       </c>
       <c r="N9">
-        <v>0.174651041547993</v>
+        <v>0.5243180000000001</v>
       </c>
       <c r="O9">
-        <v>0.01229856650367359</v>
+        <v>0.005448845870037694</v>
       </c>
       <c r="P9">
-        <v>0.01229856650367359</v>
+        <v>0.005448845870037694</v>
       </c>
       <c r="Q9">
-        <v>7.100991581753686</v>
+        <v>7.172417751754224</v>
       </c>
       <c r="R9">
-        <v>7.100991581753686</v>
+        <v>64.55175976578801</v>
       </c>
       <c r="S9">
-        <v>0.001899805635485661</v>
+        <v>0.0007787666321540432</v>
       </c>
       <c r="T9">
-        <v>0.001899805635485661</v>
+        <v>0.0007787666321540432</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.6581691057501</v>
+        <v>41.03855533333333</v>
       </c>
       <c r="H10">
-        <v>40.6581691057501</v>
+        <v>123.115666</v>
       </c>
       <c r="I10">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="J10">
-        <v>0.1544737457750208</v>
+        <v>0.1429232264462375</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.04831400612624</v>
+        <v>6.089875666666667</v>
       </c>
       <c r="N10">
-        <v>6.04831400612624</v>
+        <v>18.269627</v>
       </c>
       <c r="O10">
-        <v>0.4259098106724048</v>
+        <v>0.1898626055677645</v>
       </c>
       <c r="P10">
-        <v>0.4259098106724048</v>
+        <v>0.1898626055677645</v>
       </c>
       <c r="Q10">
-        <v>245.9133736657575</v>
+        <v>249.9196995196203</v>
       </c>
       <c r="R10">
-        <v>245.9133736657575</v>
+        <v>2249.277295676582</v>
       </c>
       <c r="S10">
-        <v>0.06579188381689631</v>
+        <v>0.02713577616923427</v>
       </c>
       <c r="T10">
-        <v>0.06579188381689631</v>
+        <v>0.02713577616923427</v>
       </c>
     </row>
   </sheetData>
